--- a/biology/Zoologie/Aleurothrixus/Aleurothrixus.xlsx
+++ b/biology/Zoologie/Aleurothrixus/Aleurothrixus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aleurothrixus est un genre d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre) et de la famille des Aleyrodidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (9 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (9 janvier 2023) :
 Aleurothrixus aepim Goeldi, 1886
 Aleurothrixus aguiari Costa Lima, 1942
 Aleurothrixus antidesmae Takahashi, 1933
